--- a/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/14.cursor_de_selecao/09+-+Tipos+de+Cursores+(Seleção).xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/14.cursor_de_selecao/09+-+Tipos+de+Cursores+(Seleção).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2.basico_introducao_excel\14.cursor_de_selecao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366EB8E-13E6-421E-80BE-DC4B57A34526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD7856-178F-46C8-9F73-2E7C47C7684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Seleção" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -192,21 +184,9 @@
     </r>
   </si>
   <si>
-    <t>30AE21</t>
-  </si>
-  <si>
-    <t>AC325</t>
-  </si>
-  <si>
     <t>AXZ</t>
   </si>
   <si>
-    <t>958AZ</t>
-  </si>
-  <si>
-    <t>321AZ</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2. Selecione </t>
     </r>
@@ -276,6 +256,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">3. Apague </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -284,17 +267,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Curso </t>
+      <t>apenas os números</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, para que fique apenas o texto: "Curso de Excel 365"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Selecione </t>
     </r>
     <r>
       <rPr>
@@ -305,17 +293,113 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de </t>
+      <t>todos os números de uma única vez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e aplique uma cor de fundo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>325</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>958</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>321</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Curso  de  Excel  </t>
     </r>
     <r>
       <rPr>
@@ -326,101 +410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Excel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>365</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Apague </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apenas os números</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, para que fique apenas o texto: "Curso de Excel 365"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Selecione </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>todos os números de uma única vez</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e aplique uma cor de fundo</t>
     </r>
   </si>
 </sst>
@@ -428,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +465,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +492,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -509,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -527,6 +542,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,27 +869,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -894,7 +918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>27</v>
       </c>
@@ -908,7 +932,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>30</v>
       </c>
@@ -922,7 +946,7 @@
         <v>0.53611111111111098</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>41</v>
       </c>
@@ -936,7 +960,7 @@
         <v>0.57777777777777795</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>48</v>
       </c>
@@ -950,7 +974,7 @@
         <v>0.61944444444444402</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>24</v>
       </c>
@@ -964,7 +988,7 @@
         <v>0.66111111111111098</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>47</v>
       </c>
@@ -981,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>27</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>0.74444444444444402</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>43</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>0.78611111111111098</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>26</v>
       </c>
@@ -1023,7 +1047,7 @@
         <v>0.82777777777777795</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>24</v>
       </c>
@@ -1037,7 +1061,7 @@
         <v>0.86944444444444402</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>36</v>
       </c>
@@ -1064,92 +1088,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4B4D7A-1E18-4FF4-9A11-C2C68A832E5F}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>20</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>30</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="11">
+        <v>3652</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3652</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1158,29 +1182,29 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="D20" s="12">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="12">
         <v>3</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="12">
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="6">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
@@ -1190,8 +1214,8 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
         <v>3</v>
       </c>
       <c r="C22" s="6"/>
@@ -1201,8 +1225,8 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="6">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
         <v>4</v>
       </c>
       <c r="C23" s="6"/>
@@ -1212,8 +1236,8 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
         <v>5</v>
       </c>
       <c r="C24" s="6"/>
@@ -1240,29 +1264,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1278,18 +1302,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
